--- a/assets/UI_Task_list_detail.xlsx
+++ b/assets/UI_Task_list_detail.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lupaProj\Lupa\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyApplication\Lupa\Lupa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="login and register" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>Module</t>
   </si>
@@ -733,12 +733,123 @@
   </si>
   <si>
     <t>19/12/2018 :Weekly and last 5 minutes design section is missing in pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> In progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In Progress</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1221,23 +1332,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>72</v>
       </c>
@@ -1280,13 +1391,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.75" thickBot="1">
+    <row r="3" spans="1:8" ht="71" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58.5" thickBot="1">
+    <row r="4" spans="1:8" ht="57" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72.75" thickBot="1">
+    <row r="5" spans="1:8" ht="71" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1479,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>76</v>
@@ -1458,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="255.75" thickBot="1">
+    <row r="14" spans="1:8" ht="247" thickBot="1">
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
@@ -1475,7 +1586,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.75" thickBot="1">
+    <row r="15" spans="1:8" ht="39" thickBot="1">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="78" thickBot="1">
+    <row r="16" spans="1:8" ht="64" thickBot="1">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,7 +1629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="58.5" thickBot="1">
+    <row r="17" spans="1:8" ht="57" thickBot="1">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.75" thickBot="1">
+    <row r="18" spans="1:8" ht="39" thickBot="1">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.75" thickBot="1">
+    <row r="19" spans="1:8" ht="39" thickBot="1">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="255.75" thickBot="1">
+    <row r="25" spans="1:8" ht="247" thickBot="1">
       <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
@@ -1665,7 +1776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="58.5" thickBot="1">
+    <row r="26" spans="1:8" ht="43" thickBot="1">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="52.5" thickBot="1">
+    <row r="27" spans="1:8" ht="51.5" thickBot="1">
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1708,7 +1819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="58.5" thickBot="1">
+    <row r="28" spans="1:8" ht="57" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1722,13 +1833,13 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="65.25" thickBot="1">
+    <row r="29" spans="1:8" ht="51.5" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1748,7 +1859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="52.5" thickBot="1">
+    <row r="30" spans="1:8" ht="51.5" thickBot="1">
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1768,7 +1879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="65.25" thickBot="1">
+    <row r="31" spans="1:8" ht="64" thickBot="1">
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,7 +1933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="255">
+    <row r="35" spans="2:8" ht="246.5">
       <c r="B35" s="6" t="s">
         <v>85</v>
       </c>
@@ -1867,12 +1978,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1946,11 +2057,11 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
@@ -1973,7 +2084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2003,13 +2114,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="49.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
@@ -2056,7 +2167,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
